--- a/biology/Zoologie/Apodemia/Apodemia.xlsx
+++ b/biology/Zoologie/Apodemia/Apodemia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apodemia est un genre d'insectes lépidoptères de la famille des Riodinidae. Ils résident tous en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Apodemia leur a été donné par Cajetan Freiherr von Felder et Rudolf Felder en 1865.
 </t>
@@ -542,12 +556,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Apodemia castanea (Prittwitz, 1865)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apodemia castanea (Prittwitz, 1865)
 Apodemia chisosensis Freeman, 1964
 Apodemia duryi (Edwards, 1882)
-Apodemia hepburni Godman &amp; Salvin, [1886]
+Apodemia hepburni Godman &amp; Salvin, 
 Apodemia hepburni hepburni
 Apodemia hepburni remota Austin, 1991
 Apodemia hypoglauca (Godman &amp; Salvin, 1878)
@@ -575,7 +591,7 @@
 Apodemia paucipuncta moedensis Callaghan, 1979
 Apodemia phyciodoides Barnes &amp; Benjamin, 1924
 Apodemia virgulti (Behr, 1865)
-Apodemia walkeri Godman &amp; Salvin, [1886]</t>
+Apodemia walkeri Godman &amp; Salvin, </t>
         </is>
       </c>
     </row>
